--- a/Data/g3.10.xlsx
+++ b/Data/g3.10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>2013</v>
       </c>
       <c r="B2" t="n">
-        <v>14.52378094207102</v>
+        <v>14.64804213534365</v>
       </c>
       <c r="C2" t="n">
-        <v>19.69587511063854</v>
+        <v>19.86438721871553</v>
       </c>
       <c r="D2" t="n">
-        <v>16.83282450318315</v>
+        <v>16.97684119327626</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2014</v>
       </c>
       <c r="B3" t="n">
-        <v>14.90134597447317</v>
+        <v>15.02883750299057</v>
       </c>
       <c r="C3" t="n">
-        <v>19.19210121389222</v>
+        <v>19.35630318084281</v>
       </c>
       <c r="D3" t="n">
-        <v>16.27653990611961</v>
+        <v>16.41579718899596</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2015</v>
       </c>
       <c r="B4" t="n">
-        <v>15.54078150257254</v>
+        <v>15.67374385318919</v>
       </c>
       <c r="C4" t="n">
-        <v>19.54683430431739</v>
+        <v>19.71407126313995</v>
       </c>
       <c r="D4" t="n">
-        <v>17.93619933479935</v>
+        <v>18.08965617506757</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>14.61103184781564</v>
+        <v>14.73603953414716</v>
       </c>
       <c r="C5" t="n">
-        <v>20.20836194191897</v>
+        <v>20.38125873642475</v>
       </c>
       <c r="D5" t="n">
-        <v>18.09234782149424</v>
+        <v>18.24714062223734</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>14.72629601493906</v>
+        <v>14.85228986754543</v>
       </c>
       <c r="C6" t="n">
-        <v>21.1824343949776</v>
+        <v>21.36366506658011</v>
       </c>
       <c r="D6" t="n">
-        <v>23.26411117990765</v>
+        <v>23.46315206514084</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2018</v>
       </c>
       <c r="B7" t="n">
-        <v>14.68408491973527</v>
+        <v>14.80971762663996</v>
       </c>
       <c r="C7" t="n">
-        <v>22.16685509666075</v>
+        <v>22.35650818192823</v>
       </c>
       <c r="D7" t="n">
-        <v>25.69449567888616</v>
+        <v>25.91433021827586</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2019</v>
       </c>
       <c r="B8" t="n">
-        <v>14.00992303337463</v>
+        <v>14.12978780968381</v>
       </c>
       <c r="C8" t="n">
-        <v>20.76841933183985</v>
+        <v>20.94610781246719</v>
       </c>
       <c r="D8" t="n">
-        <v>25.99178100787812</v>
+        <v>26.21415903300823</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2020</v>
       </c>
       <c r="B9" t="n">
-        <v>13.06262074478408</v>
+        <v>13.17438068164136</v>
       </c>
       <c r="C9" t="n">
-        <v>18.52977402737795</v>
+        <v>18.68830931794025</v>
       </c>
       <c r="D9" t="n">
-        <v>22.14018195643185</v>
+        <v>22.32960683416533</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2021</v>
       </c>
       <c r="B10" t="n">
-        <v>11.08711020120148</v>
+        <v>11.18196825152884</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2093569039162</v>
+        <v>15.33948368325335</v>
       </c>
       <c r="D10" t="n">
-        <v>16.26591766456823</v>
+        <v>16.40508406667354</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2022</v>
       </c>
       <c r="B11" t="n">
-        <v>10.6601300922351</v>
+        <v>10.75133502647269</v>
       </c>
       <c r="C11" t="n">
-        <v>14.31467277844238</v>
+        <v>14.43714490383805</v>
       </c>
       <c r="D11" t="n">
-        <v>15.02280370008826</v>
+        <v>15.15133438514329</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,27 @@
         <v>2023</v>
       </c>
       <c r="B12" t="n">
-        <v>12.47469002329323</v>
+        <v>12.53032514891231</v>
       </c>
       <c r="C12" t="n">
-        <v>16.0557975886993</v>
+        <v>16.1783575814411</v>
       </c>
       <c r="D12" t="n">
-        <v>16.02379412868965</v>
+        <v>16.16088899311427</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.9121025203487</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16.5426848958928</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.65809582394565</v>
       </c>
     </row>
   </sheetData>
